--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pglyrp1-Trem1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pglyrp1-Trem1.xlsx
@@ -534,52 +534,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.84539950889194</v>
+        <v>1.995483333333333</v>
       </c>
       <c r="H2">
-        <v>1.84539950889194</v>
+        <v>5.98645</v>
       </c>
       <c r="I2">
-        <v>0.3764488421831956</v>
+        <v>0.3457527559234298</v>
       </c>
       <c r="J2">
-        <v>0.3764488421831956</v>
+        <v>0.3457527559234297</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.06415553476299</v>
+        <v>3.217721</v>
       </c>
       <c r="N2">
-        <v>3.06415553476299</v>
+        <v>9.653162999999999</v>
       </c>
       <c r="O2">
-        <v>0.5377128031853882</v>
+        <v>0.2700934312193076</v>
       </c>
       <c r="P2">
-        <v>0.5377128031853882</v>
+        <v>0.2700934312193076</v>
       </c>
       <c r="Q2">
-        <v>5.654591119020141</v>
+        <v>6.420908626816667</v>
       </c>
       <c r="R2">
-        <v>5.654591119020141</v>
+        <v>57.78817764135</v>
       </c>
       <c r="S2">
-        <v>0.2024213621862199</v>
+        <v>0.09338554820089093</v>
       </c>
       <c r="T2">
-        <v>0.2024213621862199</v>
+        <v>0.09338554820089091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.84539950889194</v>
+        <v>1.995483333333333</v>
       </c>
       <c r="H3">
-        <v>1.84539950889194</v>
+        <v>5.98645</v>
       </c>
       <c r="I3">
-        <v>0.3764488421831956</v>
+        <v>0.3457527559234298</v>
       </c>
       <c r="J3">
-        <v>0.3764488421831956</v>
+        <v>0.3457527559234297</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.63434283948263</v>
+        <v>8.695641666666667</v>
       </c>
       <c r="N3">
-        <v>2.63434283948263</v>
+        <v>26.086925</v>
       </c>
       <c r="O3">
-        <v>0.4622871968146117</v>
+        <v>0.7299065687806925</v>
       </c>
       <c r="P3">
-        <v>0.4622871968146117</v>
+        <v>0.7299065687806925</v>
       </c>
       <c r="Q3">
-        <v>4.861414982234243</v>
+        <v>17.35200801847222</v>
       </c>
       <c r="R3">
-        <v>4.861414982234243</v>
+        <v>156.16807216625</v>
       </c>
       <c r="S3">
-        <v>0.1740274799969757</v>
+        <v>0.2523672077225389</v>
       </c>
       <c r="T3">
-        <v>0.1740274799969757</v>
+        <v>0.2523672077225388</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.00194799893344</v>
+        <v>1.073876333333333</v>
       </c>
       <c r="H4">
-        <v>1.00194799893344</v>
+        <v>3.221629</v>
       </c>
       <c r="I4">
-        <v>0.204390519401807</v>
+        <v>0.1860680545753899</v>
       </c>
       <c r="J4">
-        <v>0.204390519401807</v>
+        <v>0.1860680545753899</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.06415553476299</v>
+        <v>3.217721</v>
       </c>
       <c r="N4">
-        <v>3.06415553476299</v>
+        <v>9.653162999999999</v>
       </c>
       <c r="O4">
-        <v>0.5377128031853882</v>
+        <v>0.2700934312193076</v>
       </c>
       <c r="P4">
-        <v>0.5377128031853882</v>
+        <v>0.2700934312193076</v>
       </c>
       <c r="Q4">
-        <v>3.070124506476603</v>
+        <v>3.455434429169666</v>
       </c>
       <c r="R4">
-        <v>3.070124506476603</v>
+        <v>31.098909862527</v>
       </c>
       <c r="S4">
-        <v>0.1099033991320631</v>
+        <v>0.05025575930056845</v>
       </c>
       <c r="T4">
-        <v>0.1099033991320631</v>
+        <v>0.05025575930056845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.00194799893344</v>
+        <v>1.073876333333333</v>
       </c>
       <c r="H5">
-        <v>1.00194799893344</v>
+        <v>3.221629</v>
       </c>
       <c r="I5">
-        <v>0.204390519401807</v>
+        <v>0.1860680545753899</v>
       </c>
       <c r="J5">
-        <v>0.204390519401807</v>
+        <v>0.1860680545753899</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.63434283948263</v>
+        <v>8.695641666666667</v>
       </c>
       <c r="N5">
-        <v>2.63434283948263</v>
+        <v>26.086925</v>
       </c>
       <c r="O5">
-        <v>0.4622871968146117</v>
+        <v>0.7299065687806925</v>
       </c>
       <c r="P5">
-        <v>0.4622871968146117</v>
+        <v>0.7299065687806925</v>
       </c>
       <c r="Q5">
-        <v>2.639474536524258</v>
+        <v>9.338043788980556</v>
       </c>
       <c r="R5">
-        <v>2.639474536524258</v>
+        <v>84.04239410082501</v>
       </c>
       <c r="S5">
-        <v>0.09448712026974387</v>
+        <v>0.1358122952748215</v>
       </c>
       <c r="T5">
-        <v>0.09448712026974387</v>
+        <v>0.1358122952748215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.910239072334396</v>
+        <v>0.9363446666666667</v>
       </c>
       <c r="H6">
-        <v>0.910239072334396</v>
+        <v>2.809034</v>
       </c>
       <c r="I6">
-        <v>0.1856825274088952</v>
+        <v>0.1622382625734142</v>
       </c>
       <c r="J6">
-        <v>0.1856825274088952</v>
+        <v>0.1622382625734142</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.06415553476299</v>
+        <v>3.217721</v>
       </c>
       <c r="N6">
-        <v>3.06415553476299</v>
+        <v>9.653162999999999</v>
       </c>
       <c r="O6">
-        <v>0.5377128031853882</v>
+        <v>0.2700934312193076</v>
       </c>
       <c r="P6">
-        <v>0.5377128031853882</v>
+        <v>0.2700934312193076</v>
       </c>
       <c r="Q6">
-        <v>2.789114091450969</v>
+        <v>3.012895897171333</v>
       </c>
       <c r="R6">
-        <v>2.789114091450969</v>
+        <v>27.116063074542</v>
       </c>
       <c r="S6">
-        <v>0.09984387231558471</v>
+        <v>0.04381948901351242</v>
       </c>
       <c r="T6">
-        <v>0.09984387231558471</v>
+        <v>0.04381948901351242</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.910239072334396</v>
+        <v>0.9363446666666667</v>
       </c>
       <c r="H7">
-        <v>0.910239072334396</v>
+        <v>2.809034</v>
       </c>
       <c r="I7">
-        <v>0.1856825274088952</v>
+        <v>0.1622382625734142</v>
       </c>
       <c r="J7">
-        <v>0.1856825274088952</v>
+        <v>0.1622382625734142</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.63434283948263</v>
+        <v>8.695641666666667</v>
       </c>
       <c r="N7">
-        <v>2.63434283948263</v>
+        <v>26.086925</v>
       </c>
       <c r="O7">
-        <v>0.4622871968146117</v>
+        <v>0.7299065687806925</v>
       </c>
       <c r="P7">
-        <v>0.4622871968146117</v>
+        <v>0.7299065687806925</v>
       </c>
       <c r="Q7">
-        <v>2.397881782421428</v>
+        <v>8.142117697827778</v>
       </c>
       <c r="R7">
-        <v>2.397881782421428</v>
+        <v>73.27905928045</v>
       </c>
       <c r="S7">
-        <v>0.08583865509331047</v>
+        <v>0.1184187735599018</v>
       </c>
       <c r="T7">
-        <v>0.08583865509331047</v>
+        <v>0.1184187735599018</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.894084720637398</v>
+        <v>1.504935</v>
       </c>
       <c r="H8">
-        <v>0.894084720637398</v>
+        <v>4.514805</v>
       </c>
       <c r="I8">
-        <v>0.1823871504657169</v>
+        <v>0.2607565871604841</v>
       </c>
       <c r="J8">
-        <v>0.1823871504657169</v>
+        <v>0.2607565871604841</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.06415553476299</v>
+        <v>3.217721</v>
       </c>
       <c r="N8">
-        <v>3.06415553476299</v>
+        <v>9.653162999999999</v>
       </c>
       <c r="O8">
-        <v>0.5377128031853882</v>
+        <v>0.2700934312193076</v>
       </c>
       <c r="P8">
-        <v>0.5377128031853882</v>
+        <v>0.2700934312193076</v>
       </c>
       <c r="Q8">
-        <v>2.739614645288105</v>
+        <v>4.842460953134999</v>
       </c>
       <c r="R8">
-        <v>2.739614645288105</v>
+        <v>43.582148578215</v>
       </c>
       <c r="S8">
-        <v>0.09807190594191581</v>
+        <v>0.07042864133921159</v>
       </c>
       <c r="T8">
-        <v>0.09807190594191581</v>
+        <v>0.07042864133921159</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.894084720637398</v>
+        <v>1.504935</v>
       </c>
       <c r="H9">
-        <v>0.894084720637398</v>
+        <v>4.514805</v>
       </c>
       <c r="I9">
-        <v>0.1823871504657169</v>
+        <v>0.2607565871604841</v>
       </c>
       <c r="J9">
-        <v>0.1823871504657169</v>
+        <v>0.2607565871604841</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.63434283948263</v>
+        <v>8.695641666666667</v>
       </c>
       <c r="N9">
-        <v>2.63434283948263</v>
+        <v>26.086925</v>
       </c>
       <c r="O9">
-        <v>0.4622871968146117</v>
+        <v>0.7299065687806925</v>
       </c>
       <c r="P9">
-        <v>0.4622871968146117</v>
+        <v>0.7299065687806925</v>
       </c>
       <c r="Q9">
-        <v>2.355325681701957</v>
+        <v>13.086375491625</v>
       </c>
       <c r="R9">
-        <v>2.355325681701957</v>
+        <v>117.777379424625</v>
       </c>
       <c r="S9">
-        <v>0.08431524452380107</v>
+        <v>0.1903279458212725</v>
       </c>
       <c r="T9">
-        <v>0.08431524452380107</v>
+        <v>0.1903279458212725</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.250454305937704</v>
+        <v>0.2607776666666666</v>
       </c>
       <c r="H10">
-        <v>0.250454305937704</v>
+        <v>0.7823329999999999</v>
       </c>
       <c r="I10">
-        <v>0.0510909605403853</v>
+        <v>0.04518433976728187</v>
       </c>
       <c r="J10">
-        <v>0.0510909605403853</v>
+        <v>0.04518433976728187</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.06415553476299</v>
+        <v>3.217721</v>
       </c>
       <c r="N10">
-        <v>3.06415553476299</v>
+        <v>9.653162999999999</v>
       </c>
       <c r="O10">
-        <v>0.5377128031853882</v>
+        <v>0.2700934312193076</v>
       </c>
       <c r="P10">
-        <v>0.5377128031853882</v>
+        <v>0.2700934312193076</v>
       </c>
       <c r="Q10">
-        <v>0.7674309477442389</v>
+        <v>0.8391097743643331</v>
       </c>
       <c r="R10">
-        <v>0.7674309477442389</v>
+        <v>7.551987969278999</v>
       </c>
       <c r="S10">
-        <v>0.02747226360960463</v>
+        <v>0.01220399336512417</v>
       </c>
       <c r="T10">
-        <v>0.02747226360960463</v>
+        <v>0.01220399336512417</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.250454305937704</v>
+        <v>0.2607776666666666</v>
       </c>
       <c r="H11">
-        <v>0.250454305937704</v>
+        <v>0.7823329999999999</v>
       </c>
       <c r="I11">
-        <v>0.0510909605403853</v>
+        <v>0.04518433976728187</v>
       </c>
       <c r="J11">
-        <v>0.0510909605403853</v>
+        <v>0.04518433976728187</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.63434283948263</v>
+        <v>8.695641666666667</v>
       </c>
       <c r="N11">
-        <v>2.63434283948263</v>
+        <v>26.086925</v>
       </c>
       <c r="O11">
-        <v>0.4622871968146117</v>
+        <v>0.7299065687806925</v>
       </c>
       <c r="P11">
-        <v>0.4622871968146117</v>
+        <v>0.7299065687806925</v>
       </c>
       <c r="Q11">
-        <v>0.6597825074645824</v>
+        <v>2.267629144002778</v>
       </c>
       <c r="R11">
-        <v>0.6597825074645824</v>
+        <v>20.408662296025</v>
       </c>
       <c r="S11">
-        <v>0.02361869693078066</v>
+        <v>0.0329803464021577</v>
       </c>
       <c r="T11">
-        <v>0.02361869693078066</v>
+        <v>0.0329803464021577</v>
       </c>
     </row>
   </sheetData>
